--- a/Nono-GIS/转表测试/sample/基础信息-样表.xlsx
+++ b/Nono-GIS/转表测试/sample/基础信息-样表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\体积比较大的那种报告\地价监测\2023黄石第四季度\1_新体系测算\转表测试\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCC280F-B8D3-47B1-AB18-80423C56D2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A394784C-DF26-4AA8-B240-F9E4A3300F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,7 +436,7 @@
     <t>填表说明：
 1.此表用于以招标、拍卖、挂牌方式出让的交易点调查以及价格的剥离与修正。
 2.市辖区内交易点均应填报，若其不在监测范围内，填写基本信息、规划条件、交易信息即可。
-3.“[1]交易点编号”栏，交易点编号由16位数字（或英文字母）组成，包括6位行政区划代码、1位土地用途代码、6位时间代码和4位交易点序号。行政区划代码执行国家行政代码标准GB/T 2260；土地用途代码用大写英文字母表示，居住用地为“J”、公共管理与公共服务用地为“P”、商业服务业用地为“S”、工矿用地为“G”、仓储用地为“C”，其它为“Q”；时间代码由6位年份码和月份码组成如“202401”；交易点序号为4位，按年在全市由小到大编排。
+3.“[1]交易点编号”栏，交易点编号由17位数字（或英文字母）组成，包括6位行政区划代码、1位土地用途代码、6位时间代码和4位交易点序号。行政区划代码执行国家行政代码标准GB/T 2260；土地用途代码用大写英文字母表示，居住用地为“J”、公共管理与公共服务用地为“P”、商业服务业用地为“S”、工矿用地为“G”、仓储用地为“C”，其它为“Q”；时间代码由6位年份码和月份码组成如“202401”；交易点序号为4位，按年在全市由小到大编排。
 4.所在土地类别据出让公告中的相关信息，从下拉列表中选填，列表中无相应类别的，选择“其它”并将其编辑修改为地类名称。
 5.“[8]所在土地级别”栏，交易点在基准地价范围外的无需填写，需在备注栏说明情况。
 6.“[12]容积率”栏，容积率公布数据为区间值的，应填写区间值。
@@ -448,6 +448,7 @@
 12.“[28]其它修正”栏，填写除“[25] 用途剥离、[26] 配建剥离、[27] 产权限制修正栏”以外，其它修正的具体内容，主要指交易点参与区段地价测算时，按照区段设定条件对其价格进行的修正等。
 13.“[29] 修正后地面价、[30] 修正后楼面价栏”，填写经剥离、修正后的交易点价格。
 14.当“[5]所在土地一级类”栏为“其它”，且实际用途为含商服、住宅、工业等的混合用途时，可根据实际需要分别对各用途进行剥离修正后，在“[18]主要用途”栏所在行分栏填写主要用途，并根据“主要用途”所在列填报对应“[8]所在土地级别”栏，“[9]所在区段编码”栏，“[25]用途剥离”栏,“[26]配建剥离”栏，“[27]产权限制修正”栏，“[28]其它修正”栏，“[29]修正后地面价”栏，“[30]修正后楼面价”栏。若只剥离修正一种用途或不做剥离修正，仅在“D列”填写，若剥离修正两种用途，则依次在“D列”、“E列”填写，若剥离修正商服、住宅、工业三种用途的，则依次在“D列”、“E列”、“F列”填写。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -677,32 +678,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1016,8 +1017,8 @@
   </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:F33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1031,17 +1032,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1050,98 +1051,98 @@
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="17"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="17"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="23"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="17"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="23"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="17"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="23"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="17"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="23"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="17"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="23"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="17"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="23"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="13" t="s">
         <v>9</v>
       </c>
@@ -1159,7 +1160,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="23"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="13" t="s">
         <v>22</v>
       </c>
@@ -1177,35 +1178,35 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="23"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="17"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="23"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="17"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="13" t="s">
@@ -1214,56 +1215,56 @@
       <c r="C13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="17"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="23"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="17"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="23"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="17"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="23"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="17"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -1272,28 +1273,28 @@
       <c r="C17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="17"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="23"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="17"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="23"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="13" t="s">
         <v>42</v>
       </c>
@@ -1311,88 +1312,88 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="23"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="17"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
     </row>
     <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="23"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="13" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="17"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
     </row>
     <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A22" s="23"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="17"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="23"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="13" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="17"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23"/>
     </row>
     <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="23"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="13" t="s">
         <v>52</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="17"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
     </row>
     <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="23"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="17"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A26" s="14" t="s">
@@ -1401,10 +1402,10 @@
       <c r="B26" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="17"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="13" t="s">
         <v>108</v>
       </c>
@@ -1419,10 +1420,10 @@
       <c r="B27" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D27" s="17"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="13" t="s">
         <v>111</v>
       </c>
@@ -1437,10 +1438,10 @@
       <c r="B28" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D28" s="17"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="13" t="s">
         <v>112</v>
       </c>
@@ -1455,10 +1456,10 @@
       <c r="B29" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="17"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="13" t="s">
         <v>114</v>
       </c>
@@ -1467,7 +1468,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -1487,7 +1488,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="24"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="7" t="s">
         <v>66</v>
       </c>
@@ -1511,22 +1512,22 @@
       <c r="B32" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
@@ -1556,6 +1557,22 @@
     <protectedRange sqref="F34" name="区域2_1"/>
   </protectedRanges>
   <mergeCells count="32">
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="A2:A12"/>
@@ -1572,22 +1589,6 @@
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="D20:F20"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="3">
